--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1896.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1896.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.11366179284136</v>
+        <v>1.235000252723694</v>
       </c>
       <c r="B1">
-        <v>2.946304813434883</v>
+        <v>1.90663206577301</v>
       </c>
       <c r="C1">
-        <v>3.622575494821209</v>
+        <v>2.455095529556274</v>
       </c>
       <c r="D1">
-        <v>2.693649392859951</v>
+        <v>3.857033491134644</v>
       </c>
       <c r="E1">
-        <v>1.173459498237177</v>
+        <v>1.154526948928833</v>
       </c>
     </row>
   </sheetData>
